--- a/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
+++ b/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14400" activeTab="1"/>
+    <workbookView windowHeight="15000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -67,14 +67,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -95,47 +95,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,6 +119,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -156,15 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,17 +178,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,21 +241,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +255,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,169 +363,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +453,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,18 +462,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +497,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,178 +546,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1301,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
         <v>10</v>

--- a/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
+++ b/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
@@ -47,7 +47,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Column</t>
   </si>
   <si>
     <t>Type</t>
@@ -66,15 +66,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -95,17 +94,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +140,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,22 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,21 +166,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,45 +180,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +222,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +445,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,6 +478,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -483,27 +508,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -549,118 +548,118 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,40 +668,39 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,280 +965,280 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="12" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="12" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>61</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.657</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>10.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>70124</v>
       </c>
     </row>
     <row r="3" ht="12" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>47</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.571</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>9.4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>50976</v>
       </c>
     </row>
     <row r="4" ht="12" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9.9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>56802</v>
       </c>
     </row>
     <row r="5" ht="12" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.488</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>9.6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>59094</v>
       </c>
     </row>
     <row r="6" ht="12" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>50</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.592</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>9.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>49620</v>
       </c>
     </row>
     <row r="7" ht="12" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>61</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.657</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>10.2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>70124</v>
       </c>
     </row>
     <row r="8" ht="12" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>47</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.571</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>9.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>50976</v>
       </c>
     </row>
     <row r="9" ht="12" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.6</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>9.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>56802</v>
       </c>
     </row>
     <row r="10" ht="12" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.488</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>9.6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>59094</v>
       </c>
     </row>
     <row r="11" ht="12" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.592</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9.9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>49620</v>
       </c>
     </row>
     <row r="12" ht="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>61</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.657</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>10.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>70124</v>
       </c>
     </row>
     <row r="13" ht="12" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>47</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.571</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>9.4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>50976</v>
       </c>
     </row>
     <row r="14" ht="12" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.6</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>9.9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>56802</v>
       </c>
     </row>
     <row r="15" ht="12" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>50</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.488</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>9.6</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>59094</v>
       </c>
     </row>
     <row r="16" ht="12" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>50</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.592</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>9.9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>49620</v>
       </c>
     </row>
@@ -1256,7 +1254,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1280,7 +1278,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1294,7 +1292,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1308,7 +1306,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1322,7 +1320,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">

--- a/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
+++ b/src/GroupClasses/GroupClasses.NUnitTests/TestDatas/Group Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diehe\source\repos\diehell02\GroupClasses\src\GroupClasses\GroupClasses.NUnitTests\TestDatas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F68E57-816E-4188-9D2F-CE734067742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -218,16 +224,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -238,7 +240,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,7 +252,7 @@
       <sz val="9"/>
       <color rgb="FF9CDCFE"/>
       <name val="Menlo"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,352 +261,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -627,251 +297,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -892,61 +320,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1144,26 +528,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="31.3928571428571" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:6">
+    <row r="1" spans="1:6" ht="13.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1191,10 +576,10 @@
         <v>162</v>
       </c>
       <c r="C2" s="5">
-        <v>0.526</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D2" s="6">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1203,7 +588,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1211,10 +596,10 @@
         <v>124</v>
       </c>
       <c r="C3" s="5">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D3" s="6">
-        <v>69.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -1223,7 +608,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +616,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="5">
-        <v>0.552</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D4" s="6">
         <v>60</v>
@@ -1243,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +636,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="5">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D5" s="6">
         <v>69</v>
@@ -1263,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +668,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1291,10 +676,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="5">
-        <v>0.549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
@@ -1303,7 +688,7 @@
         <v>11011</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +699,7 @@
         <v>0.503</v>
       </c>
       <c r="D8" s="6">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -1323,7 +708,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +728,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +736,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="5">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D10" s="6">
         <v>62.3</v>
@@ -1363,7 +748,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +768,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +788,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1411,7 +796,7 @@
         <v>113</v>
       </c>
       <c r="C13" s="5">
-        <v>0.553</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D13" s="6">
         <v>73.7</v>
@@ -1423,7 +808,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1431,10 +816,10 @@
         <v>77</v>
       </c>
       <c r="C14" s="5">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>32</v>
@@ -1443,7 +828,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1471,7 +856,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="5">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D16" s="6">
         <v>68.5</v>
@@ -1483,7 +868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +876,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="5">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D17" s="6">
         <v>62.5</v>
@@ -1503,7 +888,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1511,10 +896,10 @@
         <v>138</v>
       </c>
       <c r="C18" s="5">
-        <v>0.536</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D18" s="6">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>42</v>
@@ -1523,7 +908,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +916,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="5">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D19" s="6">
         <v>62.5</v>
@@ -1543,7 +928,7 @@
         <v>11011</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1563,7 +948,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1571,10 +956,10 @@
         <v>142</v>
       </c>
       <c r="C21" s="5">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D21" s="6">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>47</v>
@@ -1583,7 +968,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1594,7 +979,7 @@
         <v>0.497</v>
       </c>
       <c r="D22" s="6">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>49</v>
@@ -1603,7 +988,7 @@
         <v>11010</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -1611,7 +996,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="5">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D23" s="6">
         <v>65.3</v>
@@ -1623,7 +1008,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -1631,10 +1016,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="5">
-        <v>0.537</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D24" s="6">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>53</v>
@@ -1643,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1654,7 +1039,7 @@
         <v>0.503</v>
       </c>
       <c r="D25" s="6">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>44</v>
@@ -1663,7 +1048,7 @@
         <v>11011</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1671,7 +1056,7 @@
         <v>124</v>
       </c>
       <c r="C26" s="5">
-        <v>0.564</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D26" s="6">
         <v>66.8</v>
@@ -1683,7 +1068,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1694,7 +1079,7 @@
         <v>0.54</v>
       </c>
       <c r="D27" s="6">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>58</v>
@@ -1703,7 +1088,7 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -1711,7 +1096,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D28" s="6">
         <v>75.7</v>
@@ -1723,7 +1108,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1734,7 +1119,7 @@
         <v>0.54</v>
       </c>
       <c r="D29" s="6">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>58</v>
@@ -1743,7 +1128,7 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1136,7 @@
         <v>164</v>
       </c>
       <c r="C30" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D30" s="6">
         <v>75.7</v>
@@ -1763,7 +1148,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -1771,7 +1156,7 @@
         <v>164</v>
       </c>
       <c r="C31" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D31" s="6">
         <v>75.7</v>
@@ -1784,25 +1169,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="9.82142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.64285714285714" customWidth="1"/>
-    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1830,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1844,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1858,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1260,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>